--- a/meetDetails.xlsx
+++ b/meetDetails.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\KMITL\Computer System\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\beatTheMeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57615682-0C67-4F9D-A137-CDB007E429DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A82F2-7EA5-4621-A939-486140FECF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="495" yWindow="1050" windowWidth="21585" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -31,80 +30,74 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:charset val="222"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,31 +396,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{BDA95281-09A2-43D3-B2F4-8CA5DA2F54A4}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F12" sqref="F12"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA95281-09A2-43D3-B2F4-8CA5DA2F54A4}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/meetDetails.xlsx
+++ b/meetDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\beatTheMeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037A82F2-7EA5-4621-A939-486140FECF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01F49DE-34AC-4FBB-BE41-BC5DABDFE4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="1050" windowWidth="21585" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://meet.google.com/det-pfkt-cdf?hs=224</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/znv-kpou-opr?hs=224</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -418,19 +424,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>6.381994278E+17</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3">
+        <v>6.38199432E+17</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/meetDetails.xlsx
+++ b/meetDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\beatTheMeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01F49DE-34AC-4FBB-BE41-BC5DABDFE4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621BE9B1-728E-41EC-A115-501552CF3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="1050" windowWidth="21585" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>https://meet.google.com/det-pfkt-cdf?hs=224</t>
-  </si>
-  <si>
-    <t>https://meet.google.com/znv-kpou-opr?hs=224</t>
   </si>
 </sst>
 </file>
@@ -406,7 +400,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,19 +418,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>6.381994278E+17</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>6.38199432E+17</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/meetDetails.xlsx
+++ b/meetDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\beatTheMeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621BE9B1-728E-41EC-A115-501552CF3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89718F35-1675-432F-A865-478E47D78591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1050" windowWidth="21585" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
+    <workbookView minimized="1" xWindow="495" yWindow="1050" windowWidth="21585" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/meetDetails.xlsx
+++ b/meetDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\beatTheMeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89718F35-1675-432F-A865-478E47D78591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73F1AE-FEF3-4650-A9FB-FB9C77788DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="495" yWindow="1050" windowWidth="21585" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
+    <workbookView xWindow="495" yWindow="1050" windowWidth="21585" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://meet.google.com/hhr-znkn-ovv?hs=224</t>
   </si>
 </sst>
 </file>
@@ -418,11 +421,11 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>6.381994596E+17</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/meetDetails.xlsx
+++ b/meetDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\beatTheMeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73F1AE-FEF3-4650-A9FB-FB9C77788DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62264D-870C-4F95-BCAF-7BD1E1EA81AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="1050" windowWidth="21585" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>https://meet.google.com/hhr-znkn-ovv?hs=224</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -421,11 +421,11 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>6.381994596E+17</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/meetDetails.xlsx
+++ b/meetDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\beatTheMeat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62264D-870C-4F95-BCAF-7BD1E1EA81AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA723FD-1E42-4B27-ABDD-33B1D667C799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1050" windowWidth="21585" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
+    <workbookView xWindow="11010" yWindow="1710" windowWidth="12165" windowHeight="11310" xr2:uid="{1FA2E8C0-8080-4A8F-8275-2EAF96AB054D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>endTime</t>
   </si>
 </sst>
 </file>
@@ -400,193 +403,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA95281-09A2-43D3-B2F4-8CA5DA2F54A4}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
